--- a/Participants info.xlsx
+++ b/Participants info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\RPS\NEC Spring Microservice 5 days\NEC Batch-4  29-04-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6386D9-562C-4611-A5C5-C72A2573EC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2934609-4876-46E3-9110-011373936DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,9 +639,7 @@
       <c r="E7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="4:6" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="2" t="s">
@@ -797,14 +795,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="4:6" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="4:6" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D23" s="2" t="s">
@@ -860,7 +860,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="4:6" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D29" s="2" t="s">
         <v>25</v>
       </c>
@@ -869,7 +869,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="4:6" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D30" s="2" t="s">
         <v>26</v>
       </c>
@@ -878,7 +878,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="4:6" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D31" s="2" t="s">
         <v>27</v>
       </c>
